--- a/StructureDefinition-be-referralprescription-nursing-gen-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-other.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="599">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -475,6 +475,86 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying the reason for the current state of an event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+  </si>
+  <si>
     <t>informParty</t>
   </si>
   <si>
@@ -485,6 +565,35 @@
     <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
+    <t>coprescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+</t>
+  </si>
+  <si>
+    <t>Other parties that have to take part in the prescription.</t>
+  </si>
+  <si>
+    <t>Other practitioners that must take part in this prescripiton</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {resource-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Validity period of the prescription</t>
+  </si>
+  <si>
+    <t>The period during which the resource content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -552,18 +661,6 @@
     <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
@@ -573,12 +670,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.use</t>
   </si>
   <si>
@@ -612,10 +703,6 @@
     <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -626,9 +713,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -870,7 +954,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1404,9 +1488,6 @@
     <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
@@ -1589,7 +1670,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1623,7 +1704,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -2120,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2130,7 +2211,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2153,7 +2234,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -3097,7 +3178,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3313,13 +3394,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>147</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3328,10 +3407,10 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3340,13 +3419,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3397,19 +3476,19 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3418,7 +3497,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3429,24 +3508,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>79</v>
@@ -3455,17 +3534,13 @@
         <v>132</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3501,19 +3576,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3534,7 +3609,7 @@
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
@@ -3545,7 +3620,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3553,31 +3628,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3585,7 +3660,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3615,59 +3690,59 @@
         <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>87</v>
@@ -3679,20 +3754,18 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3717,10 +3790,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3729,25 +3802,23 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
@@ -3756,32 +3827,34 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>87</v>
@@ -3796,13 +3869,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3829,13 +3902,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3853,7 +3924,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3865,7 +3936,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
@@ -3874,7 +3945,7 @@
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3883,13 +3954,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C16" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3899,7 +3972,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3908,17 +3981,15 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3955,19 +4026,19 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3976,7 +4047,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -3988,7 +4059,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3997,11 +4068,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4010,32 +4083,28 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4059,13 +4128,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -4083,28 +4152,28 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4113,11 +4182,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4129,29 +4200,27 @@
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4175,13 +4244,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4199,28 +4268,28 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4231,55 +4300,55 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4315,28 +4384,28 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4347,7 +4416,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4355,13 +4424,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4370,16 +4439,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4393,7 +4462,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4417,25 +4486,23 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4444,26 +4511,28 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4484,15 +4553,17 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4541,13 +4612,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4556,24 +4627,24 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4593,20 +4664,18 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4655,7 +4724,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4667,16 +4736,16 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4687,11 +4756,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4707,19 +4776,19 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4757,19 +4826,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4781,16 +4850,16 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4801,7 +4870,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4812,30 +4881,32 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4859,13 +4930,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4883,13 +4954,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4898,13 +4969,13 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4915,18 +4986,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4938,16 +5009,20 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4971,13 +5046,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4995,13 +5070,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -5010,13 +5085,13 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5027,18 +5102,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5050,28 +5125,32 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5107,13 +5186,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -5122,13 +5201,13 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5137,23 +5216,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5162,20 +5241,18 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5187,7 +5264,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5223,7 +5300,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5238,13 +5315,13 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5253,9 +5330,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5263,32 +5340,30 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5313,13 +5388,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5337,10 +5412,10 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5352,24 +5427,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5377,7 +5452,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5386,22 +5461,22 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5427,13 +5502,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5451,10 +5526,10 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5466,24 +5541,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5491,13 +5566,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5506,20 +5581,18 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5543,11 +5616,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5565,7 +5640,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5580,16 +5655,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5597,7 +5672,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5608,7 +5683,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5617,18 +5692,20 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5677,28 +5754,28 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5709,11 +5786,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5729,20 +5806,18 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5779,19 +5854,19 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5803,16 +5878,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5823,11 +5898,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5846,20 +5921,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5907,7 +5978,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5922,13 +5993,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5937,13 +6008,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5953,25 +6024,29 @@
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6019,7 +6094,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6031,16 +6106,16 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6049,41 +6124,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6109,63 +6184,63 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6173,7 +6248,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6182,32 +6257,30 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
@@ -6225,13 +6298,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6249,10 +6322,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6264,24 +6337,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6289,13 +6362,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6304,18 +6377,20 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6339,13 +6414,11 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6363,13 +6436,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6381,13 +6454,13 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6395,7 +6468,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6415,27 +6488,25 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>79</v>
@@ -6477,7 +6548,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6489,16 +6560,16 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6509,18 +6580,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6529,21 +6600,21 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6579,40 +6650,40 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6623,7 +6694,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6634,7 +6705,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6646,19 +6717,19 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6707,13 +6778,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6725,10 +6796,10 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6739,7 +6810,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6759,23 +6830,19 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6823,7 +6890,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6835,16 +6902,16 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6855,18 +6922,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6875,25 +6942,25 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P42" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6913,55 +6980,55 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>368</v>
+        <v>151</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6969,7 +7036,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6986,35 +7053,33 @@
         <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Q43" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="R43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7055,7 +7120,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7070,13 +7135,13 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7085,23 +7150,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7110,16 +7175,16 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7145,11 +7210,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7167,7 +7234,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7182,24 +7249,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7219,25 +7286,27 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>172</v>
+        <v>357</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7279,7 +7348,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7291,16 +7360,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>174</v>
+        <v>362</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7311,18 +7380,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7331,21 +7400,21 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7381,40 +7450,40 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>179</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>174</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7425,7 +7494,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7436,7 +7505,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7448,19 +7517,19 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7509,13 +7578,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7527,10 +7596,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7541,7 +7610,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7561,19 +7630,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7621,7 +7694,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7633,16 +7706,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>174</v>
+        <v>386</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7653,18 +7726,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7673,25 +7746,25 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>176</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7711,55 +7784,55 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>179</v>
+        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>174</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7767,7 +7840,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7784,30 +7857,32 @@
         <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>101</v>
+        <v>371</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>313</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>315</v>
+        <v>400</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="Q50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7851,7 +7926,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7866,13 +7941,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7881,23 +7956,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7906,16 +7981,16 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7941,13 +8016,11 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7965,7 +8038,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7980,24 +8053,24 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8017,27 +8090,25 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8079,7 +8150,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8091,16 +8162,16 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8111,18 +8182,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8131,21 +8202,21 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8181,40 +8252,40 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8225,7 +8296,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8236,7 +8307,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8248,19 +8319,19 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8309,13 +8380,13 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -8327,10 +8398,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8341,7 +8412,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8361,23 +8432,19 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8425,7 +8492,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8437,16 +8504,16 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8455,41 +8522,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>402</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>207</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>189</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8515,29 +8582,31 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>401</v>
+        <v>154</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8546,30 +8615,30 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8592,17 +8661,19 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>410</v>
+        <v>101</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8651,7 +8722,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8669,10 +8740,10 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>414</v>
+        <v>347</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8681,9 +8752,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8691,13 +8762,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8706,15 +8777,17 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>416</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8763,10 +8836,10 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>87</v>
@@ -8778,28 +8851,28 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>421</v>
+        <v>354</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8818,22 +8891,24 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>426</v>
+        <v>107</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>356</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>357</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>79</v>
@@ -8875,7 +8950,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8890,28 +8965,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8921,7 +8996,7 @@
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8930,16 +9005,18 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>436</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>438</v>
+        <v>365</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8987,7 +9064,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9002,24 +9079,24 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9033,7 +9110,7 @@
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9042,16 +9119,20 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9075,13 +9156,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9099,7 +9180,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9117,25 +9198,25 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>451</v>
+        <v>378</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9145,7 +9226,7 @@
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9154,16 +9235,20 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>455</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>456</v>
+        <v>380</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9211,7 +9296,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9226,35 +9311,35 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>88</v>
@@ -9266,16 +9351,16 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>465</v>
+        <v>162</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9301,13 +9386,11 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9325,43 +9408,43 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>473</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9371,7 +9454,7 @@
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9380,18 +9463,18 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>191</v>
+        <v>437</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9415,13 +9498,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9439,7 +9522,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9454,16 +9537,16 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9471,18 +9554,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9494,17 +9577,15 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9553,13 +9634,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9568,35 +9649,35 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9608,13 +9689,13 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>191</v>
+        <v>453</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9641,13 +9722,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9665,13 +9746,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9680,38 +9761,38 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9720,13 +9801,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9777,13 +9858,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9792,24 +9873,24 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9820,7 +9901,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>88</v>
@@ -9832,17 +9913,15 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>191</v>
+        <v>472</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9867,13 +9946,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>448</v>
+        <v>165</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9891,13 +9970,13 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
@@ -9906,38 +9985,38 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9946,17 +10025,15 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10005,13 +10082,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -10020,55 +10097,57 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10117,13 +10196,13 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -10132,35 +10211,35 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>88</v>
@@ -10169,19 +10248,19 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10207,13 +10286,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10231,13 +10310,13 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
@@ -10246,28 +10325,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10277,7 +10356,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10286,16 +10365,16 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10345,7 +10424,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10360,28 +10439,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10391,7 +10470,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10400,20 +10479,16 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10437,13 +10512,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>448</v>
+        <v>165</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10461,7 +10536,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10479,21 +10554,21 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10507,22 +10582,22 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J74" t="s" s="2">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10573,7 +10648,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10588,24 +10663,24 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10616,7 +10691,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>88</v>
@@ -10628,15 +10703,17 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10661,13 +10738,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10685,13 +10762,13 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10700,16 +10777,16 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>408</v>
+        <v>537</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10717,7 +10794,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10737,19 +10814,19 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10799,7 +10876,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10814,23 +10891,817 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AL83" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN76">
+  <autoFilter ref="A1:AN83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10840,7 +11711,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-gen-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-other.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="604">
   <si>
     <t>Property</t>
   </si>
@@ -425,6 +425,9 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -592,6 +595,19 @@
   </si>
   <si>
     <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
+    <t>executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+</t>
+  </si>
+  <si>
+    <t>BeExecutionPeriod</t>
+  </si>
+  <si>
+    <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2201,7 +2217,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3178,7 +3194,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3193,13 +3209,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3238,17 +3254,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3260,7 +3276,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3283,7 +3299,7 @@
         <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
@@ -3305,16 +3321,16 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3364,7 +3380,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3373,19 +3389,19 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3396,7 +3412,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3422,10 +3438,10 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3476,7 +3492,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3497,7 +3513,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3508,7 +3524,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3531,13 +3547,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3576,19 +3592,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3600,7 +3616,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3620,7 +3636,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3646,13 +3662,13 @@
         <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3660,7 +3676,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3702,7 +3718,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>87</v>
@@ -3734,7 +3750,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3757,13 +3773,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3790,10 +3806,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3802,17 +3818,17 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3844,10 +3860,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -3869,13 +3885,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3902,11 +3918,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3924,7 +3940,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3959,7 +3975,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -3981,13 +3997,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4038,7 +4054,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4047,10 +4063,10 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
@@ -4073,7 +4089,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4095,13 +4111,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4152,7 +4168,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4161,10 +4177,10 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4187,14 +4203,14 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
@@ -4209,16 +4225,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4268,7 +4284,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4277,10 +4293,10 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4298,45 +4314,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4384,7 +4398,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4393,10 +4407,10 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4405,7 +4419,7 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4416,11 +4430,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4430,27 +4444,29 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4486,17 +4502,19 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4508,31 +4526,29 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4541,10 +4557,10 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4553,16 +4569,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4600,19 +4616,17 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4627,26 +4641,28 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4664,18 +4680,20 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4724,50 +4742,50 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -4779,17 +4797,15 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4826,31 +4842,31 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
@@ -4859,7 +4875,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4870,43 +4886,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4930,52 +4944,52 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4986,7 +5000,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5003,25 +5017,25 @@
         <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5046,13 +5060,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -5070,7 +5084,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5088,10 +5102,10 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5102,7 +5116,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5110,7 +5124,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
@@ -5125,32 +5139,32 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5162,13 +5176,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5186,7 +5200,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5204,10 +5218,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5218,7 +5232,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5241,30 +5255,32 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5300,7 +5316,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5318,10 +5334,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5332,7 +5348,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5340,7 +5356,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
@@ -5355,15 +5371,17 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5376,7 +5394,7 @@
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5412,7 +5430,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5430,10 +5448,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5444,7 +5462,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5467,17 +5485,15 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5526,7 +5542,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5544,10 +5560,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5558,7 +5574,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5569,7 +5585,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5581,16 +5597,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5640,13 +5656,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5655,13 +5671,13 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5672,7 +5688,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5695,16 +5711,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5754,7 +5770,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5769,13 +5785,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5790,7 +5806,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5809,15 +5825,17 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5881,13 +5899,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5898,11 +5916,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5921,13 +5939,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5978,7 +5996,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5993,38 +6011,38 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6033,20 +6051,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6094,13 +6108,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6109,13 +6123,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6126,15 +6140,15 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6143,24 +6157,26 @@
         <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6184,13 +6200,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6208,10 +6224,10 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -6223,24 +6239,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6254,7 +6270,7 @@
         <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>88</v>
@@ -6266,13 +6282,13 @@
         <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6298,13 +6314,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6322,7 +6338,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6337,24 +6353,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6368,29 +6384,27 @@
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6414,11 +6428,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6436,13 +6452,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6451,24 +6467,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6476,31 +6492,35 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>148</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6524,13 +6544,11 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6548,31 +6566,31 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6580,18 +6598,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6603,17 +6621,15 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6650,31 +6666,31 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
@@ -6683,7 +6699,7 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6694,11 +6710,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6714,23 +6730,21 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6766,19 +6780,19 @@
         <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6790,16 +6804,16 @@
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6810,7 +6824,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6821,7 +6835,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6830,19 +6844,23 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6890,28 +6908,28 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6922,18 +6940,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6945,17 +6963,15 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6992,31 +7008,31 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
@@ -7025,7 +7041,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7036,18 +7052,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7056,29 +7072,27 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>79</v>
@@ -7108,40 +7122,40 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7152,7 +7166,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7175,24 +7189,26 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>79</v>
@@ -7234,7 +7250,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7252,10 +7268,10 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7266,7 +7282,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7289,24 +7305,24 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7348,7 +7364,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7366,10 +7382,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7380,7 +7396,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7403,24 +7419,24 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>79</v>
@@ -7462,7 +7478,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7480,10 +7496,10 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7494,7 +7510,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7517,19 +7533,17 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7578,7 +7592,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7596,10 +7610,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7610,7 +7624,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7633,19 +7647,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7694,7 +7708,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7712,10 +7726,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7726,7 +7740,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7749,66 +7763,68 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="O49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="Q49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7823,16 +7839,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7840,7 +7856,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7857,31 +7873,27 @@
         <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>371</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>79</v>
@@ -7902,13 +7914,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7926,7 +7938,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7941,62 +7953,66 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>162</v>
+        <v>376</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P51" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8016,11 +8032,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -8038,7 +8056,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8053,55 +8071,57 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>148</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8126,13 +8146,11 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8150,7 +8168,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>150</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8162,38 +8180,38 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>151</v>
+        <v>418</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8205,17 +8223,15 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8252,31 +8268,31 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8285,7 +8301,7 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8296,11 +8312,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8316,23 +8332,21 @@
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8368,19 +8382,19 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8392,16 +8406,16 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8412,7 +8426,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8423,7 +8437,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -8432,19 +8446,23 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8492,28 +8510,28 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8524,18 +8542,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8547,17 +8565,15 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8594,31 +8610,31 @@
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
@@ -8627,7 +8643,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8638,18 +8654,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8658,23 +8674,21 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8710,40 +8724,40 @@
         <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8754,7 +8768,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8777,18 +8791,20 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8836,7 +8852,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8854,10 +8870,10 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8868,7 +8884,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8891,24 +8907,24 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>79</v>
@@ -8950,7 +8966,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8968,10 +8984,10 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8982,7 +8998,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9005,24 +9021,24 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>79</v>
@@ -9064,7 +9080,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9082,10 +9098,10 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9096,7 +9112,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9119,19 +9135,17 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9180,7 +9194,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9198,10 +9212,10 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9212,7 +9226,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9235,19 +9249,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9296,7 +9310,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9314,10 +9328,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9326,23 +9340,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9351,18 +9365,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9386,11 +9402,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y63" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9408,16 +9426,16 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
@@ -9426,35 +9444,35 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9463,18 +9481,18 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K64" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>440</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9498,13 +9516,11 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9522,16 +9538,16 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
@@ -9540,21 +9556,21 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9562,13 +9578,13 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9577,16 +9593,18 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9634,10 +9652,10 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>87</v>
@@ -9649,38 +9667,38 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9689,13 +9707,13 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9746,10 +9764,10 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -9761,28 +9779,28 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9792,7 +9810,7 @@
         <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9801,13 +9819,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9858,7 +9876,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9873,28 +9891,28 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9913,13 +9931,13 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9946,13 +9964,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9970,7 +9988,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9985,28 +10003,28 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10025,13 +10043,13 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10058,13 +10076,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10082,7 +10100,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10097,28 +10115,28 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10137,17 +10155,15 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10196,7 +10212,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10211,32 +10227,32 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
@@ -10251,16 +10267,16 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>162</v>
+        <v>496</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10286,13 +10302,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10310,7 +10326,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10325,35 +10341,35 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>88</v>
@@ -10365,16 +10381,16 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>513</v>
+        <v>163</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10400,13 +10416,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10424,13 +10440,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10439,28 +10455,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10470,7 +10486,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10479,15 +10495,17 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>162</v>
+        <v>518</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10512,13 +10530,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10536,7 +10554,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10551,16 +10569,16 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10568,7 +10586,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10591,13 +10609,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10624,13 +10642,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10648,7 +10666,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10669,18 +10687,18 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10694,7 +10712,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10703,17 +10721,15 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>162</v>
+        <v>532</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M75" t="s" s="2">
         <v>533</v>
       </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10738,13 +10754,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10762,7 +10778,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10777,24 +10793,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10802,13 +10818,13 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10817,16 +10833,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>541</v>
+        <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10852,13 +10868,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10876,7 +10892,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10891,16 +10907,16 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10908,7 +10924,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10928,18 +10944,20 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="K77" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -10988,7 +11006,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11003,28 +11021,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11034,7 +11052,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11043,17 +11061,15 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11102,7 +11118,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11117,13 +11133,13 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11132,13 +11148,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11148,25 +11164,25 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11216,7 +11232,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11231,28 +11247,28 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11262,7 +11278,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11271,20 +11287,18 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>162</v>
+        <v>570</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>576</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11308,13 +11322,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>577</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11332,7 +11346,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11350,25 +11364,25 @@
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11384,19 +11398,23 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>582</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11420,13 +11438,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11444,7 +11462,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11459,24 +11477,24 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>587</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11487,7 +11505,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>88</v>
@@ -11496,16 +11514,16 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>587</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11556,13 +11574,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -11571,10 +11589,10 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>591</v>
@@ -11583,12 +11601,12 @@
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11599,19 +11617,19 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>593</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>594</v>
@@ -11619,9 +11637,7 @@
       <c r="L83" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>596</v>
-      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11670,13 +11686,13 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
@@ -11685,23 +11701,137 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="AK83" t="s" s="2">
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL83" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AL84" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN83">
+  <autoFilter ref="A1:AN84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11711,7 +11841,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-gen-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-other.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="603">
   <si>
     <t>Property</t>
   </si>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}nurs-gen:if other is the code, then orderDetail  SHALL be SNOMED-CT {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.code.memberOf('http://snomed.info/sct')}</t>
   </si>
   <si>
     <t>Request</t>
@@ -425,7 +425,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -584,17 +584,14 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {resource-effectivePeriod}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
     <t>Validity period of the prescription</t>
   </si>
   <si>
-    <t>The period during which the resource content was or is planned to be effective.</t>
-  </si>
-  <si>
-    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+    <t>Begin and enddate of the validity of the request</t>
   </si>
   <si>
     <t>executed</t>
@@ -4233,9 +4230,7 @@
       <c r="L18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4319,17 +4314,17 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -4341,13 +4336,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4430,11 +4425,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4456,16 +4451,16 @@
         <v>133</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4514,7 +4509,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4546,7 +4541,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4569,16 +4564,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4616,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
@@ -4626,7 +4621,7 @@
         <v>137</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4641,27 +4636,27 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4683,16 +4678,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4742,7 +4737,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4757,24 +4752,24 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4886,11 +4881,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4912,13 +4907,13 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5000,7 +4995,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5026,16 +5021,16 @@
         <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5060,31 +5055,31 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5105,7 +5100,7 @@
         <v>130</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5116,7 +5111,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5142,16 +5137,16 @@
         <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5179,28 +5174,28 @@
         <v>172</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5218,10 +5213,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5232,7 +5227,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5258,65 +5253,65 @@
         <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S27" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="R27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S27" t="s" s="2">
+      <c r="T27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5334,10 +5329,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5348,7 +5343,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5374,13 +5369,13 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5394,43 +5389,43 @@
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5448,10 +5443,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5462,7 +5457,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5485,13 +5480,13 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5542,7 +5537,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5560,10 +5555,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5574,7 +5569,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5597,16 +5592,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5656,7 +5651,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5674,10 +5669,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5688,7 +5683,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5711,16 +5706,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5770,7 +5765,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5785,13 +5780,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5802,7 +5797,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5828,13 +5823,13 @@
         <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5884,7 +5879,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5899,13 +5894,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5916,11 +5911,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5939,13 +5934,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5996,7 +5991,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6011,13 +6006,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6028,11 +6023,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6051,13 +6046,13 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6108,7 +6103,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6123,13 +6118,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6140,11 +6135,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6163,19 +6158,19 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6224,7 +6219,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6239,13 +6234,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6256,7 +6251,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6282,13 +6277,13 @@
         <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6314,14 +6309,14 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6338,7 +6333,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6353,24 +6348,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>313</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6396,13 +6391,13 @@
         <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6428,14 +6423,14 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6452,7 +6447,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>87</v>
@@ -6467,16 +6462,16 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6484,7 +6479,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6510,16 +6505,16 @@
         <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6548,7 +6543,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6566,7 +6561,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6584,13 +6579,13 @@
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6598,7 +6593,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6710,11 +6705,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6736,13 +6731,13 @@
         <v>133</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6824,7 +6819,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6847,19 +6842,19 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6908,7 +6903,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6926,10 +6921,10 @@
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6940,7 +6935,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7052,11 +7047,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7078,13 +7073,13 @@
         <v>133</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7166,7 +7161,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7192,65 +7187,65 @@
         <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7268,10 +7263,10 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7282,7 +7277,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7308,13 +7303,13 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7364,7 +7359,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7382,10 +7377,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7396,7 +7391,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7422,63 +7417,63 @@
         <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7496,10 +7491,10 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7510,7 +7505,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7536,14 +7531,14 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7592,7 +7587,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7610,10 +7605,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7624,7 +7619,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7647,19 +7642,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7708,7 +7703,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7726,10 +7721,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7740,7 +7735,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7766,16 +7761,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7824,7 +7819,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7842,10 +7837,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7856,7 +7851,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7882,10 +7877,10 @@
         <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7893,35 +7888,35 @@
         <v>79</v>
       </c>
       <c r="P50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Q50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="X50" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Q50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X50" t="s" s="2">
+      <c r="Y50" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7938,7 +7933,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7953,16 +7948,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7970,7 +7965,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7993,26 +7988,26 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P51" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="O51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="Q51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8056,7 +8051,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8071,13 +8066,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8088,11 +8083,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8114,13 +8109,13 @@
         <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8146,11 +8141,11 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8168,7 +8163,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8183,24 +8178,24 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8312,11 +8307,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8338,13 +8333,13 @@
         <v>133</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8426,7 +8421,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8449,19 +8444,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8510,7 +8505,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8528,10 +8523,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8542,7 +8537,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8654,11 +8649,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8680,13 +8675,13 @@
         <v>133</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8768,7 +8763,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8794,16 +8789,16 @@
         <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8852,7 +8847,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8870,10 +8865,10 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8884,7 +8879,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8910,13 +8905,13 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8966,7 +8961,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8984,10 +8979,10 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8998,7 +8993,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9024,21 +9019,21 @@
         <v>107</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>79</v>
@@ -9080,7 +9075,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9098,10 +9093,10 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9112,7 +9107,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9138,14 +9133,14 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9194,7 +9189,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9212,10 +9207,10 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9226,7 +9221,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9249,19 +9244,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9310,7 +9305,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9328,10 +9323,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9342,7 +9337,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9368,16 +9363,16 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9426,7 +9421,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9444,10 +9439,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9458,11 +9453,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9484,13 +9479,13 @@
         <v>163</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9520,7 +9515,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9538,7 +9533,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9547,7 +9542,7 @@
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
@@ -9556,21 +9551,21 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9593,17 +9588,17 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9652,7 +9647,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9670,10 +9665,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9684,7 +9679,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9707,13 +9702,13 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9764,7 +9759,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>87</v>
@@ -9779,28 +9774,28 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9819,13 +9814,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9876,7 +9871,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9891,28 +9886,28 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>465</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9931,13 +9926,13 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9988,7 +9983,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10003,24 +9998,24 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AK68" t="s" s="2">
+      <c r="AL68" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>475</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10043,13 +10038,13 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10079,11 +10074,11 @@
         <v>166</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10100,7 +10095,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10121,22 +10116,22 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>483</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10155,13 +10150,13 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10212,7 +10207,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10227,28 +10222,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>493</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10267,16 +10262,16 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10326,7 +10321,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10341,28 +10336,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>504</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10384,13 +10379,13 @@
         <v>163</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10419,11 +10414,11 @@
         <v>166</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>511</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10440,7 +10435,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10455,16 +10450,16 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10472,11 +10467,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10495,16 +10490,16 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10554,7 +10549,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10569,16 +10564,16 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AL73" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>524</v>
-      </c>
       <c r="AM73" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10586,7 +10581,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10612,10 +10607,10 @@
         <v>163</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10645,11 +10640,11 @@
         <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10666,7 +10661,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10687,10 +10682,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10698,7 +10693,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10721,13 +10716,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10778,7 +10773,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10799,10 +10794,10 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10810,7 +10805,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10836,13 +10831,13 @@
         <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10871,11 +10866,11 @@
         <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10892,7 +10887,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10907,16 +10902,16 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AL76" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10924,7 +10919,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10947,16 +10942,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11006,7 +11001,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11021,16 +11016,16 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="AL77" t="s" s="2">
-        <v>552</v>
-      </c>
       <c r="AM77" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11038,7 +11033,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11061,13 +11056,13 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11118,7 +11113,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11133,13 +11128,13 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AL78" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11150,11 +11145,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11173,16 +11168,16 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11232,7 +11227,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11247,13 +11242,13 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11264,7 +11259,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11287,16 +11282,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11346,7 +11341,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11364,10 +11359,10 @@
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11378,11 +11373,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11404,16 +11399,16 @@
         <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11441,11 +11436,11 @@
         <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Y81" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11462,7 +11457,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11480,21 +11475,21 @@
         <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>585</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11517,13 +11512,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11574,7 +11569,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11589,24 +11584,24 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="AK82" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>592</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11632,10 +11627,10 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11686,7 +11681,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11704,10 +11699,10 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11718,7 +11713,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11741,16 +11736,16 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11800,7 +11795,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11815,13 +11810,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription-nursing-gen-other.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-other.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}nurs-gen:if other is the code, then orderDetail  SHALL be SNOMED-CT {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.code.memberOf('http://snomed.info/sct')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}</t>
   </si>
   <si>
     <t>Request</t>
